--- a/biology/Botanique/Gymnocarpe_fougère-du-chêne/Gymnocarpe_fougère-du-chêne.xlsx
+++ b/biology/Botanique/Gymnocarpe_fougère-du-chêne/Gymnocarpe_fougère-du-chêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polypode du Chêne
 Le Polypode du Chêne ou le Polypode dryoptère, parfois appelé la Fougère du Chêne ou le Gymnocarpium dryoptère (Gymnocarpium dryopteris) est une espèce de fougère de la famille des Woodsiaceae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec "gumnos": nu et de "karpos": fruit; "drus": chêne; "pteris": fougère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec "gumnos": nu et de "karpos": fruit; "drus": chêne; "pteris": fougère.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feuilles vert clair de 10 à 45cm sur un rhizome allongé. Pétiole au moins aussi long que le limbe. Limbe triangulaire et glabre[2]. Confusion possible avec Gymnocarpium robertianum.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feuilles vert clair de 10 à 45cm sur un rhizome allongé. Pétiole au moins aussi long que le limbe. Limbe triangulaire et glabre. Confusion possible avec Gymnocarpium robertianum.
 Espèce tétraploïde (2n = 160 chromosomes).
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Géophyte. Sporulation de juillet à septembre; dissémination par le vent.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers, forêts riches en fougères, bords de chemins et talus, clairières, sur substrats siliceux. Etages subalpin, montagnard et collinéen. Jusqu'à 2 300 mètres. Supporte l'ombre. Sols acides et frais.
-L'espèce peut être présente en plaine, mais seulement en quelques stations tout à fait relictuelles[3] (exemples Brettnach et Kemplich en Moselle).
+L'espèce peut être présente en plaine, mais seulement en quelques stations tout à fait relictuelles (exemples Brettnach et Kemplich en Moselle).
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zones tempérée et froide de l'hémisphère boréal[4] : Europe, Asie, Amérique du Nord.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zones tempérée et froide de l'hémisphère boréal : Europe, Asie, Amérique du Nord.
 France : Vosges, Jura, Massif Central, Alpes, Pyrénées, Corse; très localisé, rare et en régression dans les plaines de la partie nord.
 </t>
         </is>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce protégée en Limousin.
 </t>
@@ -685,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gymnocarpe_foug%C3%A8re-du-ch%C3%AAne</t>
+          <t>Gymnocarpe_fougère-du-chêne</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -703,7 +727,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dryopteris linnaeana C. Christens
 Polypodium dryopteris L.
